--- a/p201.xlsx
+++ b/p201.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dragonnomada/Desktop/banjercito/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3193C631-2586-EB4C-8DD0-383BA0E8E6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E8D7AD-37F9-314C-9E3F-2EDAE1DBA03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6380" yWindow="3300" windowWidth="26840" windowHeight="15940" xr2:uid="{41E7B6CC-E0E2-AB40-8A54-E4A15FF55DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="11">
   <si>
     <t>Género</t>
   </si>
@@ -60,13 +60,29 @@
   </si>
   <si>
     <t>SI</t>
+  </si>
+  <si>
+    <t>Hombres</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Mujeres</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -91,18 +107,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -434,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647DF219-F676-964B-BE38-81521ED9E43A}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,7 +477,7 @@
     <col min="3" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,8 +490,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -474,8 +507,19 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3">
+        <f>COUNTIF(A2:A10,"HOMBRE")</f>
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <f>G2/G4</f>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -488,8 +532,19 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4">
+        <f>COUNTIF(A2:A10,"MUJER")</f>
+        <v>4</v>
+      </c>
+      <c r="H3" s="2">
+        <f>G3/G4</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -502,8 +557,12 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <f>SUM(G2:G3)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -517,7 +576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -531,7 +590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -545,7 +604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -559,7 +618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -573,7 +632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
